--- a/Shimplan/Template.xlsx
+++ b/Shimplan/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Data Scienc 2022\07_Shimplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Data Scienc 2022\05_Github_Desktop\Portfolio_DS\Shimplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="82">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -260,6 +260,21 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Baugruppe 08</t>
+  </si>
+  <si>
+    <t>11-30D 371 093</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>HX/Y</t>
+  </si>
+  <si>
+    <t>Baugruppe 09</t>
   </si>
 </sst>
 </file>
@@ -747,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,6 +836,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1226,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL22"/>
+  <dimension ref="A1:AL27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,80 +1257,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="40"/>
-      <c r="U1" s="41" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="41"/>
+      <c r="U1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="43"/>
-      <c r="AH1" s="28" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="44"/>
+      <c r="AH1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="31"/>
     </row>
     <row r="2" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1340,7 @@
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="39"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1347,25 +1365,25 @@
       <c r="V2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
-      <c r="AH2" s="35" t="s">
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35"/>
+      <c r="AH2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="34"/>
+      <c r="AI2" s="35"/>
       <c r="AJ2" s="5" t="s">
         <v>15</v>
       </c>
@@ -1433,21 +1451,21 @@
       <c r="V3" s="12">
         <v>0.7</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="W3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22" t="s">
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22" t="s">
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="24"/>
       <c r="AH3" s="13" t="s">
         <v>34</v>
       </c>
@@ -1472,9 +1490,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7">
         <v>72</v>
       </c>
@@ -1519,21 +1535,21 @@
       <c r="V4" s="12">
         <v>0.8</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="W4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22" t="s">
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22" t="s">
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="24"/>
       <c r="AH4" s="18" t="s">
         <v>40</v>
       </c>
@@ -1558,9 +1574,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7">
         <v>73</v>
       </c>
@@ -1605,21 +1619,21 @@
       <c r="V5" s="20">
         <v>0.8</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="W5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="24" t="s">
+      <c r="X5" s="26"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="24" t="s">
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="27"/>
       <c r="AH5" s="18" t="s">
         <v>44</v>
       </c>
@@ -1644,9 +1658,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7">
         <v>74</v>
       </c>
@@ -1691,21 +1703,21 @@
       <c r="V6" s="20">
         <v>1.6</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="W6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="24" t="s">
+      <c r="X6" s="26"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="24" t="s">
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="27"/>
       <c r="AH6" s="18" t="s">
         <v>47</v>
       </c>
@@ -1730,9 +1742,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7">
         <v>75</v>
       </c>
@@ -1777,21 +1787,21 @@
       <c r="V7" s="12">
         <v>1.5</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="W7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="24" t="s">
+      <c r="X7" s="26"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="24" t="s">
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="27"/>
       <c r="AH7" s="18" t="s">
         <v>50</v>
       </c>
@@ -1816,9 +1826,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7">
         <v>76</v>
       </c>
@@ -1861,15 +1869,15 @@
         <v>6</v>
       </c>
       <c r="V8" s="12"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="26"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="27"/>
       <c r="AH8" s="18" t="s">
         <v>51</v>
       </c>
@@ -1894,9 +1902,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7">
         <v>77</v>
       </c>
@@ -1939,15 +1945,15 @@
         <v>7</v>
       </c>
       <c r="V9" s="12"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="26"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="27"/>
       <c r="AH9" s="18" t="s">
         <v>52</v>
       </c>
@@ -1972,9 +1978,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7">
         <v>78</v>
       </c>
@@ -2017,15 +2021,15 @@
         <v>8</v>
       </c>
       <c r="V10" s="12"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="26"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="27"/>
       <c r="AH10" s="18" t="s">
         <v>53</v>
       </c>
@@ -2050,9 +2054,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7">
         <v>79</v>
       </c>
@@ -2095,15 +2097,15 @@
         <v>9</v>
       </c>
       <c r="V11" s="12"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="24"/>
       <c r="AH11" s="18" t="s">
         <v>54</v>
       </c>
@@ -2122,9 +2124,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7">
         <v>81</v>
       </c>
@@ -2167,15 +2167,15 @@
         <v>10</v>
       </c>
       <c r="V12" s="12"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="24"/>
       <c r="AH12" s="18" t="s">
         <v>55</v>
       </c>
@@ -2241,15 +2241,15 @@
         <v>11</v>
       </c>
       <c r="V13" s="12"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="24"/>
       <c r="AH13" s="18" t="s">
         <v>58</v>
       </c>
@@ -2268,9 +2268,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7">
         <v>73</v>
       </c>
@@ -2313,15 +2311,15 @@
         <v>12</v>
       </c>
       <c r="V14" s="12"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="24"/>
       <c r="AH14" s="18" t="s">
         <v>59</v>
       </c>
@@ -2387,15 +2385,15 @@
         <v>13</v>
       </c>
       <c r="V15" s="12"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="24"/>
       <c r="AH15" s="18" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2412,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7">
         <v>73</v>
       </c>
@@ -2459,15 +2455,15 @@
         <v>14</v>
       </c>
       <c r="V16" s="12"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="24"/>
       <c r="AH16" s="18" t="s">
         <v>63</v>
       </c>
@@ -2533,15 +2529,15 @@
         <v>15</v>
       </c>
       <c r="V17" s="12"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="24"/>
       <c r="AH17" s="18" t="s">
         <v>66</v>
       </c>
@@ -2560,9 +2556,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7">
         <v>73</v>
       </c>
@@ -2605,15 +2599,15 @@
         <v>16</v>
       </c>
       <c r="V18" s="12"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="24"/>
       <c r="AH18" s="18" t="s">
         <v>67</v>
       </c>
@@ -2679,15 +2673,15 @@
         <v>17</v>
       </c>
       <c r="V19" s="12"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="24"/>
       <c r="AH19" s="18" t="s">
         <v>70</v>
       </c>
@@ -2706,9 +2700,7 @@
         <v>76</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7">
         <v>73</v>
       </c>
@@ -2751,15 +2743,15 @@
         <v>18</v>
       </c>
       <c r="V20" s="12"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="24"/>
       <c r="AH20" s="18" t="s">
         <v>71</v>
       </c>
@@ -2825,15 +2817,15 @@
         <v>19</v>
       </c>
       <c r="V21" s="12"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="24"/>
       <c r="AH21" s="18" t="s">
         <v>74</v>
       </c>
@@ -2895,15 +2887,15 @@
         <v>20</v>
       </c>
       <c r="V22" s="12"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="24"/>
       <c r="AH22" s="18" t="s">
         <v>75</v>
       </c>
@@ -2913,6 +2905,252 @@
       <c r="AJ22" s="15"/>
       <c r="AK22" s="15"/>
       <c r="AL22" s="16"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="7">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7">
+        <v>4</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>435</v>
+      </c>
+      <c r="F24" s="7">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="10">
+        <v>-739.35900000000004</v>
+      </c>
+      <c r="N24" s="10">
+        <v>420</v>
+      </c>
+      <c r="O24" s="10">
+        <v>470.11500000000001</v>
+      </c>
+      <c r="P24" s="10">
+        <v>-742.39200000000005</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>420</v>
+      </c>
+      <c r="R24" s="10">
+        <v>477.029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
+        <v>435</v>
+      </c>
+      <c r="F25" s="7">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="10">
+        <v>-659.96600000000001</v>
+      </c>
+      <c r="N25" s="10">
+        <v>420</v>
+      </c>
+      <c r="O25" s="10">
+        <v>504.95299999999997</v>
+      </c>
+      <c r="P25" s="10">
+        <v>663</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>420</v>
+      </c>
+      <c r="R25" s="10">
+        <v>511.86700000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="7">
+        <v>437</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" s="10">
+        <v>-74.484999999999999</v>
+      </c>
+      <c r="N26" s="10">
+        <v>30.001999999999999</v>
+      </c>
+      <c r="O26" s="10">
+        <v>667.89800000000002</v>
+      </c>
+      <c r="P26" s="10">
+        <v>-75.451999999999998</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>30.013999999999999</v>
+      </c>
+      <c r="R26" s="10">
+        <v>674.87699999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
+        <v>437</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="7">
+        <v>4</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="10">
+        <v>-74.484999999999999</v>
+      </c>
+      <c r="N27" s="10">
+        <v>-28.082000000000001</v>
+      </c>
+      <c r="O27" s="10">
+        <v>667.89800000000002</v>
+      </c>
+      <c r="P27" s="10">
+        <v>-75.450999999999993</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>-28.07</v>
+      </c>
+      <c r="R27" s="10">
+        <v>674.87699999999995</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="77">
@@ -2994,7 +3232,7 @@
     <mergeCell ref="Z21:AB21"/>
     <mergeCell ref="AC21:AE21"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="11">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bauteil Does Not Exist" error="Please Fill The Panel Data" sqref="F3:G22">
       <formula1>F3&lt;=COUNTA($W$824:$Y$863)</formula1>
     </dataValidation>
@@ -3010,6 +3248,24 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Enter Valid Data" promptTitle="Only Accepts Valid Data" prompt="_x000a_S- Spanner_x000a_A- Auflage_x000a_ST- Stift_x000a_SA- Stift mit Auflage " sqref="H3:H22">
       <formula1>#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Enter Valid Data" promptTitle="Only Accepts Valid Data" prompt="_x000a_S- Spanner_x000a_A- Auflage_x000a_ST- Stift_x000a_SA- Stift mit Auflage " sqref="H23:H27">
+      <formula1>$A$102:$A$105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Enter Valid Data" promptTitle="Only Accepts Valid Data" prompt="_x000a_S- Spannestellen_x000a_A- Auflagen_x000a_P- Aufnahmestifte" sqref="B23:B27">
+      <formula1>$A$99:$A$101</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Only Accepts Valid Data" prompt="_x000a_1- +/-5mm in X_x000a_2- +/-10mm in X_x000a__x000a_4- +/-5mm in HX_x000a_5- +/-10mm in HX" sqref="I23:I27">
+      <formula1>$A$106:$A$109</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Only Accepts Valid Data" prompt="_x000a_1- +/-5mm in Y_x000a_2- +/-10mm in Y_x000a__x000a_4- +/-5mm in HY_x000a_5- +/-10mm in HY" sqref="J23:J27">
+      <formula1>$A$106:$A$109</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Only Accepts Valid Data" prompt="_x000a_1- +/-5mm in Z_x000a_2- +/-10mm in Z_x000a__x000a_4- +/-5mm in HZ_x000a_5- +/-10mm in HZ" sqref="K23:K27">
+      <formula1>$A$106:$A$109</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Bauteil Does Not Exist" error="Please Fill The Panel Data" sqref="F23:G27">
+      <formula1>F23&lt;=COUNTA($Y$1067:$AA$1106)</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
